--- a/data/synthetic_dataset_small.xlsx
+++ b/data/synthetic_dataset_small.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universiteittwente-my.sharepoint.com/personal/d_frutosrodriguez_student_utwente_nl/Documents/Desktop/BIT/Mod 12/GA Implementation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfrrg\VSProjects\genetic-algorithm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="11_F25DC773A252ABDACC10489D49985ADA5ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2558532-D66A-4FE1-B38D-9F0128C6E762}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F24B575-3777-4592-9684-5A840807EB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="28">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Ref</t>
   </si>
   <si>
     <t>Program</t>
@@ -438,33 +435,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="3.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="9" width="18.77734375" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="8" width="18.77734375" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -479,225 +476,204 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2769956</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2831791</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3063496</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2990083</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3003736</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2989999</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3009076</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -705,31 +681,28 @@
       <c r="I8" t="s">
         <v>20</v>
       </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2938804</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -737,136 +710,121 @@
       <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2606720</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2889269</v>
-      </c>
-      <c r="B11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3015998</v>
-      </c>
-      <c r="B12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3053687</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
